--- a/data/Самостоятельная работа № 2 (Общая экология 2021)(1-89).xlsx
+++ b/data/Самостоятельная работа № 2 (Общая экология 2021)(1-89).xlsx
@@ -565,11 +565,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,9 +586,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,8 +638,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,23 +654,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -653,11 +678,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,34 +707,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,28 +721,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -738,12 +731,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -756,31 +869,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,133 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,6 +922,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -943,21 +945,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,7 +968,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,7 +1003,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,169 +1022,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1516,8 +1509,8 @@
   <sheetPr/>
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2105,7 +2098,7 @@
         <v>106</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3">

--- a/data/Самостоятельная работа № 2 (Общая экология 2021)(1-89).xlsx
+++ b/data/Самостоятельная работа № 2 (Общая экология 2021)(1-89).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
     <t>Наталия Кочергина</t>
   </si>
   <si>
-    <t>st061423@ad.pu.ru</t>
+    <t>st061423@student.spbu.ru</t>
   </si>
   <si>
     <t>Диана Валевская</t>
@@ -565,16 +565,45 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF5C6993"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,8 +614,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,120 +721,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -731,25 +737,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,139 +917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,8 +934,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,6 +975,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,15 +1011,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -984,48 +1020,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,134 +1049,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1510,7 +1517,7 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2102,7 +2109,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B54" s="1" t="s">

--- a/data/Самостоятельная работа № 2 (Общая экология 2021)(1-89).xlsx
+++ b/data/Самостоятельная работа № 2 (Общая экология 2021)(1-89).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Mail</t>
   </si>
@@ -557,6 +557,18 @@
   </si>
   <si>
     <t>Фарида Кадирова</t>
+  </si>
+  <si>
+    <t>st071537@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Степан Озеров</t>
+  </si>
+  <si>
+    <t>st068449@ad.pu.ru</t>
+  </si>
+  <si>
+    <t>Карина Юрьева</t>
   </si>
 </sst>
 </file>
@@ -564,12 +576,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,9 +596,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -600,32 +611,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,24 +642,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,8 +679,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,7 +704,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,21 +719,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -727,6 +739,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -737,187 +756,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,6 +947,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -950,6 +984,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -964,32 +1013,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,17 +1041,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1031,7 +1050,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,135 +1068,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,8 +1266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C90" totalsRowShown="0">
-  <autoFilter ref="A1:C90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C92" totalsRowShown="0">
+  <autoFilter ref="A1:C92"/>
   <tableColumns count="3">
     <tableColumn id="4" name="Mail" dataDxfId="0"/>
     <tableColumn id="5" name="Name" dataDxfId="1"/>
@@ -1514,10 +1535,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2515,6 +2536,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
